--- a/Sep19/pos_prof/Tables/regions-M_%cit.xlsx
+++ b/Sep19/pos_prof/Tables/regions-M_%cit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>M_ETR</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>M_POP</t>
+  </si>
+  <si>
+    <t>M_TotalTax</t>
+  </si>
+  <si>
+    <t>M_CorpTax</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -431,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -477,10 +483,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.20743390879697</v>
@@ -495,33 +507,39 @@
         <v>2228507768.5</v>
       </c>
       <c r="F2">
+        <v>5453258922371.839</v>
+      </c>
+      <c r="G2">
+        <v>901477052802.8717</v>
+      </c>
+      <c r="H2">
         <v>-0.02565242064592094</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.5058839106240718</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-0.1830780360287872</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.1740123266745904</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>-0.003446700311448071</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0.06797137222922735</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>-0.01723350155724088</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0.3398568611461366</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0.2130948962122795</v>
@@ -536,33 +554,39 @@
         <v>832566422</v>
       </c>
       <c r="F3">
+        <v>7186470855993.515</v>
+      </c>
+      <c r="G3">
+        <v>480200693963.0637</v>
+      </c>
+      <c r="H3">
         <v>2.524997775501499</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>2.270799189963377</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1.727282454716515</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>1.556509809897273</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.3392627440253223</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.305108215061474</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>1.696313720126609</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>1.525541075307366</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0.2374553544560417</v>
@@ -577,33 +601,39 @@
         <v>573353725</v>
       </c>
       <c r="F4">
+        <v>1002696890625.219</v>
+      </c>
+      <c r="G4">
+        <v>134030001792.1409</v>
+      </c>
+      <c r="H4">
         <v>4.085183499744989</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>11.859249185867</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>4.099438890382171</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>9.322118455680037</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.5488917960314579</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>1.593427709091031</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>2.744458980157289</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>7.967138545455152</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.4293297816364376</v>
@@ -618,33 +648,39 @@
         <v>253949523.25</v>
       </c>
       <c r="F5">
+        <v>241723618867.4443</v>
+      </c>
+      <c r="G5">
+        <v>38152875196.83905</v>
+      </c>
+      <c r="H5">
         <v>-2.404019935890689</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-1.509267552808722</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>-2.109737816230732</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>-1.508636002096868</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>-0.3230079677911259</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>-0.2027876049643533</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>-1.615039838955632</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>-1.013938024821768</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.2048529706690015</v>
@@ -659,33 +695,39 @@
         <v>358282006.25</v>
       </c>
       <c r="F6">
+        <v>5526698445364.336</v>
+      </c>
+      <c r="G6">
+        <v>408160442622.5067</v>
+      </c>
+      <c r="H6">
         <v>5.877433505740076</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>2.486314796390639</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>7.542234034231321</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>5.264053336782998</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.7897013765042734</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.3340652370146046</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>3.948506882521332</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>1.67032618507301</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0.3411401792246058</v>
@@ -700,33 +742,39 @@
         <v>1691005608</v>
       </c>
       <c r="F7">
+        <v>457036063703.7742</v>
+      </c>
+      <c r="G7">
+        <v>4932505470.985653</v>
+      </c>
+      <c r="H7">
         <v>-36.61245512519325</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>141.7916000605185</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>-40.54096830998851</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>79.31230422512931</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>-4.919308092780395</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>19.05134641424317</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>-24.59654046390197</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>95.25673207121591</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0.4546822824075114</v>
@@ -738,30 +786,36 @@
         <v>876719000000</v>
       </c>
       <c r="E8">
-        <v>363813169.25</v>
+        <v>366265684.25</v>
       </c>
       <c r="F8">
+        <v>114563677189.0651</v>
+      </c>
+      <c r="G8">
+        <v>24178295225.23782</v>
+      </c>
+      <c r="H8">
         <v>0.1226294742463561</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>1.480388251381159</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>2.5234246582369</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>3.435577874616924</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.01647669250834837</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>0.1989073357843532</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.08238346254174068</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>0.994536678921764</v>
       </c>
     </row>
